--- a/database/CCN DB Schema Revision.xlsx
+++ b/database/CCN DB Schema Revision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\4th Year\1st Semester\CS 495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98840CD-8CA6-4D09-A51F-5058027443A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E329779A-2B6D-43A3-860D-CE64F3B28B9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{46AC08E7-815D-483B-B510-607AD0FCDBF4}"/>
+    <workbookView xWindow="5292" yWindow="768" windowWidth="17280" windowHeight="8994" xr2:uid="{46AC08E7-815D-483B-B510-607AD0FCDBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>group_id</t>
   </si>
@@ -45,9 +45,6 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>user_email</t>
-  </si>
-  <si>
     <t>user_password</t>
   </si>
   <si>
@@ -72,33 +69,21 @@
     <t>…</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>pointlog_id</t>
   </si>
   <si>
     <t>pointlog</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>event</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>start_date</t>
   </si>
   <si>
     <t>end_date</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>attendee_id</t>
   </si>
   <si>
@@ -108,9 +93,6 @@
     <t>firstname</t>
   </si>
   <si>
-    <t>lastname_initial</t>
-  </si>
-  <si>
     <t>access</t>
   </si>
   <si>
@@ -214,6 +196,21 @@
   </si>
   <si>
     <t>point_type</t>
+  </si>
+  <si>
+    <t>point_status</t>
+  </si>
+  <si>
+    <t>log_date</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>event_type</t>
   </si>
 </sst>
 </file>
@@ -857,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87728F1-5CDF-4D7B-81EF-AE0BB35EEE2A}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -883,14 +880,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="3"/>
       <c r="E1" s="5"/>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="3"/>
@@ -899,13 +896,13 @@
     </row>
     <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>0</v>
@@ -917,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>1</v>
@@ -950,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J3" s="10">
         <v>8</v>
@@ -979,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J4" s="21">
         <v>0</v>
@@ -988,7 +985,7 @@
     <row r="5" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="6" spans="1:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1002,34 +999,34 @@
     </row>
     <row r="7" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="I7" s="11" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1053,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I8" s="15">
         <v>1</v>
@@ -1085,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -1098,7 +1095,7 @@
     <row r="11" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="12" spans="1:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
@@ -1107,7 +1104,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="10"/>
       <c r="I12" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="4"/>
@@ -1121,43 +1118,43 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="12" t="s">
+      <c r="N13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1165,19 +1162,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
@@ -1186,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L14" s="4">
         <v>1</v>
@@ -1207,19 +1204,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G15" s="21">
         <v>2</v>
@@ -1228,10 +1225,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L15" s="13">
         <v>0</v>
@@ -1247,12 +1244,12 @@
     <row r="16" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="17" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="10"/>
       <c r="E17" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1261,28 +1258,28 @@
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1290,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E19" s="18">
         <v>1</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G19" s="24">
         <v>44729</v>
@@ -1308,7 +1305,7 @@
         <v>44734</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1316,16 +1313,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E20" s="20">
         <v>2</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G20" s="25">
         <v>44635</v>
@@ -1334,7 +1331,7 @@
         <v>44636</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/database/CCN DB Schema Revision.xlsx
+++ b/database/CCN DB Schema Revision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\4th Year\1st Semester\CS 495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E329779A-2B6D-43A3-860D-CE64F3B28B9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5B6E2F-ACBE-4750-BD5B-C9983C2E423F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5292" yWindow="768" windowWidth="17280" windowHeight="8994" xr2:uid="{46AC08E7-815D-483B-B510-607AD0FCDBF4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{46AC08E7-815D-483B-B510-607AD0FCDBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>group_name</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>event_id</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
     <t>pointlog</t>
   </si>
   <si>
-    <t>event</t>
-  </si>
-  <si>
     <t>start_date</t>
   </si>
   <si>
@@ -211,6 +202,15 @@
   </si>
   <si>
     <t>event_type</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>groups</t>
   </si>
 </sst>
 </file>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87728F1-5CDF-4D7B-81EF-AE0BB35EEE2A}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -880,14 +880,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="3"/>
       <c r="E1" s="5"/>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="3"/>
@@ -896,13 +896,13 @@
     </row>
     <row r="2" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>4</v>
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J3" s="10">
         <v>8</v>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J4" s="21">
         <v>0</v>
@@ -985,7 +985,7 @@
     <row r="5" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="6" spans="1:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -999,34 +999,34 @@
     </row>
     <row r="7" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1050,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I8" s="15">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     <row r="11" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="12" spans="1:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="4"/>
@@ -1104,7 +1104,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="10"/>
       <c r="I12" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="4"/>
@@ -1118,43 +1118,43 @@
         <v>2</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="12" t="s">
+      <c r="K13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1162,19 +1162,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
@@ -1183,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L14" s="4">
         <v>1</v>
@@ -1204,19 +1204,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="E15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="G15" s="21">
         <v>2</v>
@@ -1225,10 +1225,10 @@
         <v>2</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L15" s="13">
         <v>0</v>
@@ -1244,12 +1244,12 @@
     <row r="16" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="17" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="10"/>
       <c r="E17" s="9" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1258,28 +1258,28 @@
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" s="18">
         <v>1</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G19" s="24">
         <v>44729</v>
@@ -1305,7 +1305,7 @@
         <v>44734</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1313,16 +1313,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E20" s="20">
         <v>2</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G20" s="25">
         <v>44635</v>
@@ -1331,7 +1331,7 @@
         <v>44636</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
